--- a/8_3_Flyback_SPICE_Stacked/Stacked_Component_Selection.xlsx
+++ b/8_3_Flyback_SPICE_Stacked/Stacked_Component_Selection.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\EEE\Year 3\ELEC60024 Power Electronics\coursework\ATX_PowerSupply\8_3_Flyback_SPICE_Stacked\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Year 3\8_3_Flyback_SPICE_Stacked\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB04DCD6-31AE-4C48-9041-FBABD14ACF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5934D69E-A386-4309-900D-457A5C43AD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{77D62288-61ED-4623-B85A-0158DBBD46F3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{77D62288-61ED-4623-B85A-0158DBBD46F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Diff</t>
   </si>
@@ -47,16 +48,84 @@
   </si>
   <si>
     <t>Vout</t>
+  </si>
+  <si>
+    <t>Capacitance</t>
+  </si>
+  <si>
+    <t>ESR</t>
+  </si>
+  <si>
+    <t>1.2m x3</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>5V &amp; 3.3V</t>
+  </si>
+  <si>
+    <t>Rails</t>
+  </si>
+  <si>
+    <t>50m|50m|50m</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.uk/en/products/detail/epcos-tdk-electronics/B41888C3128M000/3543931</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>0.47m x3</t>
+  </si>
+  <si>
+    <t>160m|160m|160m</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.uk/en/products/detail/kemet/EEV477M016A9MAA/6597444</t>
+  </si>
+  <si>
+    <t>\-3.3V</t>
+  </si>
+  <si>
+    <t>0.22u x3</t>
+  </si>
+  <si>
+    <t>360m|360m|360m</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.uk/en/products/detail/panasonic-electronic-components/EEE-FP1E220AR/1700994</t>
+  </si>
+  <si>
+    <t>\-12V</t>
+  </si>
+  <si>
+    <t>0.18u x3</t>
+  </si>
+  <si>
+    <t>1.35|1.35|1.35</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.uk/en/products/detail/panasonic-electronic-components/EEE-FK1V180SR/7666551</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -79,14 +148,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0BC40D-D9AF-48EA-9DC5-63C946193B8A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -505,4 +577,98 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547663EA-15B1-4B96-AA37-56422817B24B}">
+  <dimension ref="B2:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{53FB5E5A-A4B7-4E92-9FFA-8BE48E95AB3C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/8_3_Flyback_SPICE_Stacked/Stacked_Component_Selection.xlsx
+++ b/8_3_Flyback_SPICE_Stacked/Stacked_Component_Selection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Year 3\8_3_Flyback_SPICE_Stacked\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\EEE\Year 3\ELEC60024 Power Electronics\coursework\ATX_PowerSupply\8_3_Flyback_SPICE_Stacked\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5934D69E-A386-4309-900D-457A5C43AD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED23F5CE-660F-4170-A191-78070F3FB401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{77D62288-61ED-4623-B85A-0158DBBD46F3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{77D62288-61ED-4623-B85A-0158DBBD46F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,15 +471,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0BC40D-D9AF-48EA-9DC5-63C946193B8A}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -487,7 +487,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -495,7 +495,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>12</v>
       </c>
@@ -516,7 +516,7 @@
         <v>3.3687500000000006E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -529,7 +529,7 @@
         <v>1.9868750000000004E-8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.3</v>
       </c>
@@ -541,14 +541,18 @@
         <f t="shared" si="0"/>
         <v>7.4868750000000013E-8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7" s="1">
+        <f>C6+C7</f>
+        <v>9.4737500000000024E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-5</v>
       </c>
@@ -561,7 +565,7 @@
         <v>1.7187500000000005E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-12</v>
       </c>
@@ -583,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547663EA-15B1-4B96-AA37-56422817B24B}">
   <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/8_3_Flyback_SPICE_Stacked/Stacked_Component_Selection.xlsx
+++ b/8_3_Flyback_SPICE_Stacked/Stacked_Component_Selection.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\EEE\Year 3\ELEC60024 Power Electronics\coursework\ATX_PowerSupply\8_3_Flyback_SPICE_Stacked\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED23F5CE-660F-4170-A191-78070F3FB401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBCE6EE-7CDD-4AF6-9277-FB1AC2A37AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{77D62288-61ED-4623-B85A-0158DBBD46F3}"/>
+    <workbookView xWindow="-33017" yWindow="-2031" windowWidth="33120" windowHeight="18000" xr2:uid="{77D62288-61ED-4623-B85A-0158DBBD46F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Inductances" sheetId="1" r:id="rId1"/>
+    <sheet name="Capacitances" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -474,7 +474,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,10 +541,7 @@
         <f t="shared" si="0"/>
         <v>7.4868750000000013E-8</v>
       </c>
-      <c r="E7" s="1">
-        <f>C6+C7</f>
-        <v>9.4737500000000024E-8</v>
-      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">

--- a/8_3_Flyback_SPICE_Stacked/Stacked_Component_Selection.xlsx
+++ b/8_3_Flyback_SPICE_Stacked/Stacked_Component_Selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\EEE\Year 3\ELEC60024 Power Electronics\coursework\ATX_PowerSupply\8_3_Flyback_SPICE_Stacked\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBCE6EE-7CDD-4AF6-9277-FB1AC2A37AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0055FE-587E-4D08-89D5-919310E1C001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33017" yWindow="-2031" windowWidth="33120" windowHeight="18000" xr2:uid="{77D62288-61ED-4623-B85A-0158DBBD46F3}"/>
+    <workbookView xWindow="216" yWindow="1032" windowWidth="22824" windowHeight="12744" xr2:uid="{77D62288-61ED-4623-B85A-0158DBBD46F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Inductances" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
